--- a/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
+++ b/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -573,14 +573,14 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -632,14 +632,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -691,14 +691,14 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -729,16 +729,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -750,14 +750,14 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -788,16 +788,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -809,14 +809,14 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -868,14 +868,14 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[35, 35, 35, 35]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -965,16 +965,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[33, 33, 33, 33]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[33, 33, 33, 33]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1083,16 +1083,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[30, 30, 30, 30]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[32, 32, 32, 32]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[32, 32, 32, 32]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1323,16 +1323,16 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[100, 100, 100, 100]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[100, 100, 100, 100]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[50]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1441,16 +1441,16 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[100, 100, 100, 100]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Pct</t>
+          <t>Prop</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[41]</t>
+          <t>['FC']</t>
         </is>
       </c>
     </row>
@@ -1543,10 +1543,10 @@
         <v>285</v>
       </c>
       <c r="F2" t="n">
-        <v>8.252035301011807</v>
+        <v>8.254857057132657</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.403343776218572</v>
       </c>
     </row>
     <row r="3">
@@ -1570,10 +1570,10 @@
         <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>8.265331847337418</v>
+        <v>8.277729612791207</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>113.0564444647878</v>
       </c>
     </row>
     <row r="4">
@@ -1597,10 +1597,10 @@
         <v>1016</v>
       </c>
       <c r="F4" t="n">
-        <v>8.331373152267158</v>
+        <v>8.331522595200999</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1624,16 +1624,16 @@
         <v>1381</v>
       </c>
       <c r="F5" t="n">
-        <v>8.329031300172565</v>
+        <v>8.348821793627463</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23.32236107832408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1651,16 +1651,16 @@
         <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>8.252035301011807</v>
+        <v>8.254857057132657</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9.403343776218572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1678,16 +1678,16 @@
         <v>650</v>
       </c>
       <c r="F7" t="n">
-        <v>8.265331847337418</v>
+        <v>8.277729612791207</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>113.0564444647878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1705,16 +1705,16 @@
         <v>1016</v>
       </c>
       <c r="F8" t="n">
-        <v>8.331373152267158</v>
+        <v>8.331522595200999</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1732,16 +1732,16 @@
         <v>1381</v>
       </c>
       <c r="F9" t="n">
-        <v>8.329031300172565</v>
+        <v>8.348821793627463</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23.32236107832408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1759,16 +1759,16 @@
         <v>285</v>
       </c>
       <c r="F10" t="n">
-        <v>8.252035301011807</v>
+        <v>8.254857057132657</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>9.403343776218572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1786,16 +1786,16 @@
         <v>650</v>
       </c>
       <c r="F11" t="n">
-        <v>8.265331847337418</v>
+        <v>8.277729612791207</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>113.0564444647878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1813,16 +1813,16 @@
         <v>1016</v>
       </c>
       <c r="F12" t="n">
-        <v>8.331373152267158</v>
+        <v>8.331522595200999</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1840,16 +1840,16 @@
         <v>1381</v>
       </c>
       <c r="F13" t="n">
-        <v>8.329031300172565</v>
+        <v>8.348821793627463</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>23.32236107832408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1867,16 +1867,16 @@
         <v>446</v>
       </c>
       <c r="F14" t="n">
-        <v>5.799594592429121</v>
+        <v>8.152824574119061</v>
       </c>
       <c r="G14" t="n">
-        <v>625</v>
+        <v>623.1157872657654</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1894,16 +1894,16 @@
         <v>811</v>
       </c>
       <c r="F15" t="n">
-        <v>5.724272415628232</v>
+        <v>8.22490587834845</v>
       </c>
       <c r="G15" t="n">
-        <v>600</v>
+        <v>559.2473247716565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1921,16 +1921,16 @@
         <v>1177</v>
       </c>
       <c r="F16" t="n">
-        <v>5.425883008718891</v>
+        <v>8.26548949529284</v>
       </c>
       <c r="G16" t="n">
-        <v>575</v>
+        <v>554.46743171663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1948,16 +1948,16 @@
         <v>446</v>
       </c>
       <c r="F17" t="n">
-        <v>5.799594592429121</v>
+        <v>8.152824574119061</v>
       </c>
       <c r="G17" t="n">
-        <v>625</v>
+        <v>623.1157872657654</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1975,16 +1975,16 @@
         <v>811</v>
       </c>
       <c r="F18" t="n">
-        <v>5.724272415628232</v>
+        <v>8.22490587834845</v>
       </c>
       <c r="G18" t="n">
-        <v>600</v>
+        <v>559.2473247716565</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2002,16 +2002,16 @@
         <v>1177</v>
       </c>
       <c r="F19" t="n">
-        <v>5.425883008718891</v>
+        <v>8.26548949529284</v>
       </c>
       <c r="G19" t="n">
-        <v>575</v>
+        <v>554.46743171663</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2029,16 +2029,16 @@
         <v>446</v>
       </c>
       <c r="F20" t="n">
-        <v>5.799594592429121</v>
+        <v>8.152824574119061</v>
       </c>
       <c r="G20" t="n">
-        <v>625</v>
+        <v>623.1157872657654</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2056,16 +2056,16 @@
         <v>811</v>
       </c>
       <c r="F21" t="n">
-        <v>5.724272415628232</v>
+        <v>8.22490587834845</v>
       </c>
       <c r="G21" t="n">
-        <v>600</v>
+        <v>559.2473247716565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2083,16 +2083,16 @@
         <v>1177</v>
       </c>
       <c r="F22" t="n">
-        <v>5.425883008718891</v>
+        <v>8.26548949529284</v>
       </c>
       <c r="G22" t="n">
-        <v>575</v>
+        <v>554.46743171663</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2110,16 +2110,16 @@
         <v>446</v>
       </c>
       <c r="F23" t="n">
-        <v>5.799594592429121</v>
+        <v>8.152824574119061</v>
       </c>
       <c r="G23" t="n">
-        <v>625</v>
+        <v>623.1157872657654</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2137,16 +2137,16 @@
         <v>811</v>
       </c>
       <c r="F24" t="n">
-        <v>5.724272415628232</v>
+        <v>8.22490587834845</v>
       </c>
       <c r="G24" t="n">
-        <v>600</v>
+        <v>559.2473247716565</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur)</t>
+          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2164,10 +2164,10 @@
         <v>1177</v>
       </c>
       <c r="F25" t="n">
-        <v>5.425883008718891</v>
+        <v>8.26548949529284</v>
       </c>
       <c r="G25" t="n">
-        <v>575</v>
+        <v>554.46743171663</v>
       </c>
     </row>
     <row r="26">
@@ -2191,10 +2191,10 @@
         <v>416</v>
       </c>
       <c r="F26" t="n">
-        <v>2.199050389369717</v>
+        <v>8.116140477194804</v>
       </c>
       <c r="G26" t="n">
-        <v>324.6294128218001</v>
+        <v>493.7507086671172</v>
       </c>
     </row>
     <row r="27">
@@ -2218,10 +2218,10 @@
         <v>781</v>
       </c>
       <c r="F27" t="n">
-        <v>3.619606235631393</v>
+        <v>8.151121539390644</v>
       </c>
       <c r="G27" t="n">
-        <v>350</v>
+        <v>454.1084447394541</v>
       </c>
     </row>
     <row r="28">
@@ -2245,10 +2245,10 @@
         <v>1147</v>
       </c>
       <c r="F28" t="n">
-        <v>1.494692662904003</v>
+        <v>8.188330610980953</v>
       </c>
       <c r="G28" t="n">
-        <v>275</v>
+        <v>440.1297618031599</v>
       </c>
     </row>
     <row r="29">
@@ -2272,10 +2272,10 @@
         <v>416</v>
       </c>
       <c r="F29" t="n">
-        <v>2.199050389369717</v>
+        <v>8.116140477194804</v>
       </c>
       <c r="G29" t="n">
-        <v>324.6294128218001</v>
+        <v>493.7507086671172</v>
       </c>
     </row>
     <row r="30">
@@ -2299,10 +2299,10 @@
         <v>781</v>
       </c>
       <c r="F30" t="n">
-        <v>3.619606235631393</v>
+        <v>8.151121539390644</v>
       </c>
       <c r="G30" t="n">
-        <v>350</v>
+        <v>454.1084447394541</v>
       </c>
     </row>
     <row r="31">
@@ -2326,10 +2326,10 @@
         <v>1147</v>
       </c>
       <c r="F31" t="n">
-        <v>1.494692662904003</v>
+        <v>8.188330610980953</v>
       </c>
       <c r="G31" t="n">
-        <v>275</v>
+        <v>440.1297618031599</v>
       </c>
     </row>
     <row r="32">
@@ -2353,10 +2353,10 @@
         <v>429</v>
       </c>
       <c r="F32" t="n">
-        <v>1.75629891650748</v>
+        <v>8.149854613466564</v>
       </c>
       <c r="G32" t="n">
-        <v>325</v>
+        <v>521.722267415854</v>
       </c>
     </row>
     <row r="33">
@@ -2380,10 +2380,10 @@
         <v>794</v>
       </c>
       <c r="F33" t="n">
-        <v>1.404878119678743</v>
+        <v>8.18529050471156</v>
       </c>
       <c r="G33" t="n">
-        <v>275</v>
+        <v>489.5130707729779</v>
       </c>
     </row>
     <row r="34">
@@ -2407,10 +2407,10 @@
         <v>1160</v>
       </c>
       <c r="F34" t="n">
-        <v>1.775297960730243</v>
+        <v>8.234694634428431</v>
       </c>
       <c r="G34" t="n">
-        <v>300</v>
+        <v>475.1946539421569</v>
       </c>
     </row>
     <row r="35">
@@ -2434,10 +2434,10 @@
         <v>429</v>
       </c>
       <c r="F35" t="n">
-        <v>1.75629891650748</v>
+        <v>8.149854613466564</v>
       </c>
       <c r="G35" t="n">
-        <v>325</v>
+        <v>521.722267415854</v>
       </c>
     </row>
     <row r="36">
@@ -2461,10 +2461,10 @@
         <v>794</v>
       </c>
       <c r="F36" t="n">
-        <v>1.404878119678743</v>
+        <v>8.18529050471156</v>
       </c>
       <c r="G36" t="n">
-        <v>275</v>
+        <v>489.5130707729779</v>
       </c>
     </row>
     <row r="37">
@@ -2488,10 +2488,10 @@
         <v>1160</v>
       </c>
       <c r="F37" t="n">
-        <v>1.775297960730243</v>
+        <v>8.234694634428431</v>
       </c>
       <c r="G37" t="n">
-        <v>300</v>
+        <v>475.1946539421569</v>
       </c>
     </row>
     <row r="38">
@@ -2515,10 +2515,10 @@
         <v>392</v>
       </c>
       <c r="F38" t="n">
-        <v>6.219102643765745</v>
+        <v>8.160466078310424</v>
       </c>
       <c r="G38" t="n">
-        <v>375</v>
+        <v>396.6686663362698</v>
       </c>
     </row>
     <row r="39">
@@ -2542,10 +2542,10 @@
         <v>757</v>
       </c>
       <c r="F39" t="n">
-        <v>2.667879848391237</v>
+        <v>8.145782130926303</v>
       </c>
       <c r="G39" t="n">
-        <v>275</v>
+        <v>420.0252606894488</v>
       </c>
     </row>
     <row r="40">
@@ -2569,10 +2569,10 @@
         <v>1123</v>
       </c>
       <c r="F40" t="n">
-        <v>1.910364104782561</v>
+        <v>8.159362150667588</v>
       </c>
       <c r="G40" t="n">
-        <v>275</v>
+        <v>439.1301208475674</v>
       </c>
     </row>
     <row r="41">
@@ -2596,10 +2596,10 @@
         <v>392</v>
       </c>
       <c r="F41" t="n">
-        <v>6.219102643765745</v>
+        <v>8.160466078310424</v>
       </c>
       <c r="G41" t="n">
-        <v>375</v>
+        <v>396.6686663362698</v>
       </c>
     </row>
     <row r="42">
@@ -2623,10 +2623,10 @@
         <v>757</v>
       </c>
       <c r="F42" t="n">
-        <v>2.667879848391237</v>
+        <v>8.145782130926303</v>
       </c>
       <c r="G42" t="n">
-        <v>275</v>
+        <v>420.0252606894488</v>
       </c>
     </row>
     <row r="43">
@@ -2650,10 +2650,10 @@
         <v>1123</v>
       </c>
       <c r="F43" t="n">
-        <v>1.910364104782561</v>
+        <v>8.159362150667588</v>
       </c>
       <c r="G43" t="n">
-        <v>275</v>
+        <v>439.1301208475674</v>
       </c>
     </row>
     <row r="44">
@@ -2677,10 +2677,10 @@
         <v>522</v>
       </c>
       <c r="F44" t="n">
-        <v>10.38090308910392</v>
+        <v>10.98050787905975</v>
       </c>
       <c r="G44" t="n">
-        <v>1172.759181615765</v>
+        <v>789.0064062777657</v>
       </c>
     </row>
     <row r="45">
@@ -2704,10 +2704,10 @@
         <v>887</v>
       </c>
       <c r="F45" t="n">
-        <v>10.41834274183897</v>
+        <v>11.02363371829305</v>
       </c>
       <c r="G45" t="n">
-        <v>1203.58392751751</v>
+        <v>759.754732053014</v>
       </c>
     </row>
     <row r="46">
@@ -2731,10 +2731,10 @@
         <v>1253</v>
       </c>
       <c r="F46" t="n">
-        <v>10.46257201215936</v>
+        <v>11.07063181320648</v>
       </c>
       <c r="G46" t="n">
-        <v>1152.695525218605</v>
+        <v>774.2887670850631</v>
       </c>
     </row>
     <row r="47">
@@ -2758,10 +2758,10 @@
         <v>131</v>
       </c>
       <c r="F47" t="n">
-        <v>6.989670147640976</v>
+        <v>6.685001310430317</v>
       </c>
       <c r="G47" t="n">
-        <v>722.8977391671099</v>
+        <v>635.4148958486646</v>
       </c>
     </row>
     <row r="48">
@@ -2785,10 +2785,10 @@
         <v>496</v>
       </c>
       <c r="F48" t="n">
-        <v>7.015346729218368</v>
+        <v>6.663760289770972</v>
       </c>
       <c r="G48" t="n">
-        <v>689.147681439479</v>
+        <v>576.7753762708826</v>
       </c>
     </row>
     <row r="49">
@@ -2812,10 +2812,10 @@
         <v>861</v>
       </c>
       <c r="F49" t="n">
-        <v>7.043660632884428</v>
+        <v>6.665636245753939</v>
       </c>
       <c r="G49" t="n">
-        <v>687.9765759548468</v>
+        <v>569.842385873952</v>
       </c>
     </row>
     <row r="50">
@@ -2839,10 +2839,10 @@
         <v>1227</v>
       </c>
       <c r="F50" t="n">
-        <v>7.082644536901525</v>
+        <v>6.818304607624293</v>
       </c>
       <c r="G50" t="n">
-        <v>674.9028563351791</v>
+        <v>586.3869258097915</v>
       </c>
     </row>
     <row r="51">
@@ -2866,10 +2866,10 @@
         <v>137</v>
       </c>
       <c r="F51" t="n">
-        <v>6.989670147640976</v>
+        <v>6.691117006220352</v>
       </c>
       <c r="G51" t="n">
-        <v>696.9296587599061</v>
+        <v>566.12726644269</v>
       </c>
     </row>
     <row r="52">
@@ -2893,10 +2893,10 @@
         <v>502</v>
       </c>
       <c r="F52" t="n">
-        <v>7.015211013062076</v>
+        <v>6.643738165280067</v>
       </c>
       <c r="G52" t="n">
-        <v>698.2311625269382</v>
+        <v>525.945710868946</v>
       </c>
     </row>
     <row r="53">
@@ -2920,10 +2920,10 @@
         <v>867</v>
       </c>
       <c r="F53" t="n">
-        <v>7.047831954663301</v>
+        <v>6.671830562414732</v>
       </c>
       <c r="G53" t="n">
-        <v>665.171884249018</v>
+        <v>506.6232797723603</v>
       </c>
     </row>
     <row r="54">
@@ -2947,10 +2947,10 @@
         <v>1233</v>
       </c>
       <c r="F54" t="n">
-        <v>7.08299744934908</v>
+        <v>6.743602641799592</v>
       </c>
       <c r="G54" t="n">
-        <v>674.0966184177332</v>
+        <v>527.0375239137037</v>
       </c>
     </row>
   </sheetData>

--- a/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
+++ b/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
@@ -2677,10 +2677,10 @@
         <v>522</v>
       </c>
       <c r="F44" t="n">
-        <v>10.98050787905975</v>
+        <v>10.36888728709724</v>
       </c>
       <c r="G44" t="n">
-        <v>789.0064062777657</v>
+        <v>781.2895420347404</v>
       </c>
     </row>
     <row r="45">
@@ -2704,10 +2704,10 @@
         <v>887</v>
       </c>
       <c r="F45" t="n">
-        <v>11.02363371829305</v>
+        <v>10.41000634184312</v>
       </c>
       <c r="G45" t="n">
-        <v>759.754732053014</v>
+        <v>753.3783713455551</v>
       </c>
     </row>
     <row r="46">
@@ -2731,10 +2731,10 @@
         <v>1253</v>
       </c>
       <c r="F46" t="n">
-        <v>11.07063181320648</v>
+        <v>10.45509200651106</v>
       </c>
       <c r="G46" t="n">
-        <v>774.2887670850631</v>
+        <v>764.9391393697578</v>
       </c>
     </row>
     <row r="47">

--- a/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
+++ b/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Summer Tomato - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -531,10 +531,10 @@
         <v>90.41</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -552,11 +552,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -566,10 +566,10 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>31.86</v>
+        <v>33.73</v>
       </c>
       <c r="N2" t="n">
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -590,10 +590,10 @@
         <v>90.41</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -611,11 +611,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -649,10 +649,10 @@
         <v>90.41</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -684,10 +684,10 @@
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>35.28</v>
+        <v>33.73</v>
       </c>
       <c r="N4" t="n">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -708,10 +708,10 @@
         <v>90.41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -725,15 +725,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -743,10 +743,10 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>62.95</v>
+        <v>33.73</v>
       </c>
       <c r="N5" t="n">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -767,10 +767,10 @@
         <v>90.41</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -784,15 +784,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -802,10 +802,10 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>53.52</v>
+        <v>33.73</v>
       </c>
       <c r="N6" t="n">
-        <v>590</v>
+        <v>225</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -826,10 +826,10 @@
         <v>90.41</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -843,15 +843,15 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -861,10 +861,10 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>39.92</v>
+        <v>33.73</v>
       </c>
       <c r="N7" t="n">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -885,10 +885,10 @@
         <v>90.41</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -902,15 +902,15 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>12/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -920,10 +920,10 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>30.53</v>
+        <v>33.73</v>
       </c>
       <c r="N8" t="n">
-        <v>610</v>
+        <v>225</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -934,24 +934,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C9" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -961,15 +961,15 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -979,10 +979,10 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>35.64</v>
+        <v>33.73</v>
       </c>
       <c r="N9" t="n">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -993,24 +993,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C10" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1020,15 +1020,15 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1038,10 +1038,10 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>33.83</v>
+        <v>33.73</v>
       </c>
       <c r="N10" t="n">
-        <v>568</v>
+        <v>225</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1052,24 +1052,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C11" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1079,15 +1079,15 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11/17</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1097,10 +1097,10 @@
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>27.29</v>
+        <v>33.73</v>
       </c>
       <c r="N11" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1111,24 +1111,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C12" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1138,15 +1138,15 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11/17</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1156,10 +1156,10 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>25.82</v>
+        <v>33.73</v>
       </c>
       <c r="N12" t="n">
-        <v>453</v>
+        <v>225</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1170,24 +1170,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C13" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1197,15 +1197,15 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10/11</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1215,12 +1215,10 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>35.18</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+        <v>33.73</v>
+      </c>
+      <c r="N13" t="n">
+        <v>225</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1231,24 +1229,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C14" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1258,15 +1256,15 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10/11</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1276,12 +1274,10 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>141-460</t>
-        </is>
+        <v>33.73</v>
+      </c>
+      <c r="N14" t="n">
+        <v>225</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1292,7 +1288,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wheat (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1302,10 +1298,10 @@
         <v>90.41</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1314,20 +1310,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11/23</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1337,10 +1333,10 @@
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>33.73</v>
       </c>
       <c r="N15" t="n">
-        <v>430</v>
+        <v>225</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1351,20 +1347,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rice (Magura)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.49</v>
+        <v>24.1</v>
       </c>
       <c r="C16" t="n">
-        <v>89.42</v>
+        <v>90.41</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1373,20 +1369,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>01/29</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1396,10 +1392,10 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>33.73</v>
       </c>
       <c r="N16" t="n">
-        <v>1324</v>
+        <v>225</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1410,42 +1406,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rice (Barisal)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.7</v>
+        <v>24.1</v>
       </c>
       <c r="C17" t="n">
-        <v>90.37</v>
+        <v>90.41</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>02/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[100, 100, 100, 100]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1455,10 +1451,10 @@
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>3.4</v>
+        <v>33.73</v>
       </c>
       <c r="N17" t="n">
-        <v>1252</v>
+        <v>225</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1477,7 +1473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,7 +1521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Summer Tomato - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1537,22 +1533,22 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>40465</v>
+        <v>38639</v>
       </c>
       <c r="E2" t="n">
         <v>285</v>
       </c>
       <c r="F2" t="n">
-        <v>8.254857057132657</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G2" t="n">
-        <v>9.403343776218572</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Summer Tomato - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1564,22 +1560,22 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>40830</v>
+        <v>39004</v>
       </c>
       <c r="E3" t="n">
         <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>8.277729612791207</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G3" t="n">
-        <v>113.0564444647878</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summer Tomato - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1591,22 +1587,22 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>41196</v>
+        <v>39369</v>
       </c>
       <c r="E4" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F4" t="n">
-        <v>8.331522595200999</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Summer Tomato - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1618,26 +1614,26 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>41561</v>
+        <v>39735</v>
       </c>
       <c r="E5" t="n">
         <v>1381</v>
       </c>
       <c r="F5" t="n">
-        <v>8.348821793627463</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G5" t="n">
-        <v>23.32236107832408</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1645,26 +1641,26 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>40465</v>
+        <v>40100</v>
       </c>
       <c r="E6" t="n">
-        <v>285</v>
+        <v>1746</v>
       </c>
       <c r="F6" t="n">
-        <v>8.254857057132657</v>
+        <v>8.217862822058901</v>
       </c>
       <c r="G6" t="n">
-        <v>9.403343776218572</v>
+        <v>177.1996638272461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1672,26 +1668,26 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>40830</v>
+        <v>40465</v>
       </c>
       <c r="E7" t="n">
-        <v>650</v>
+        <v>2111</v>
       </c>
       <c r="F7" t="n">
-        <v>8.277729612791207</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G7" t="n">
-        <v>113.0564444647878</v>
+        <v>176.2086264501363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1699,26 +1695,26 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>41196</v>
+        <v>40830</v>
       </c>
       <c r="E8" t="n">
-        <v>1016</v>
+        <v>2476</v>
       </c>
       <c r="F8" t="n">
-        <v>8.331522595200999</v>
+        <v>8.287772583088799</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>262.1459577302136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1726,26 +1722,26 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>41561</v>
+        <v>41196</v>
       </c>
       <c r="E9" t="n">
-        <v>1381</v>
+        <v>2842</v>
       </c>
       <c r="F9" t="n">
-        <v>8.348821793627463</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G9" t="n">
-        <v>23.32236107832408</v>
+        <v>107.9602878328427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1753,26 +1749,26 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>40465</v>
+        <v>41561</v>
       </c>
       <c r="E10" t="n">
-        <v>285</v>
+        <v>3207</v>
       </c>
       <c r="F10" t="n">
-        <v>8.254857057132657</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G10" t="n">
-        <v>9.403343776218572</v>
+        <v>219.8741832971606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1780,26 +1776,26 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>40830</v>
+        <v>41926</v>
       </c>
       <c r="E11" t="n">
-        <v>650</v>
+        <v>3572</v>
       </c>
       <c r="F11" t="n">
-        <v>8.277729612791207</v>
+        <v>8.409033413511539</v>
       </c>
       <c r="G11" t="n">
-        <v>113.0564444647878</v>
+        <v>224.4131439034493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1807,26 +1803,26 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>41196</v>
+        <v>42291</v>
       </c>
       <c r="E12" t="n">
-        <v>1016</v>
+        <v>3937</v>
       </c>
       <c r="F12" t="n">
-        <v>8.331522595200999</v>
+        <v>8.447192061372981</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>186.4632035999842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1834,22 +1830,22 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>41561</v>
+        <v>42657</v>
       </c>
       <c r="E13" t="n">
-        <v>1381</v>
+        <v>4303</v>
       </c>
       <c r="F13" t="n">
-        <v>8.348821793627463</v>
+        <v>8.502671275200031</v>
       </c>
       <c r="G13" t="n">
-        <v>23.32236107832408</v>
+        <v>110.196206471653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1861,22 +1857,22 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>40626</v>
+        <v>38639</v>
       </c>
       <c r="E14" t="n">
-        <v>446</v>
+        <v>285</v>
       </c>
       <c r="F14" t="n">
-        <v>8.152824574119061</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G14" t="n">
-        <v>623.1157872657654</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1888,22 +1884,22 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>40991</v>
+        <v>39004</v>
       </c>
       <c r="E15" t="n">
-        <v>811</v>
+        <v>650</v>
       </c>
       <c r="F15" t="n">
-        <v>8.22490587834845</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G15" t="n">
-        <v>559.2473247716565</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1915,26 +1911,26 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>41357</v>
+        <v>39369</v>
       </c>
       <c r="E16" t="n">
-        <v>1177</v>
+        <v>1015</v>
       </c>
       <c r="F16" t="n">
-        <v>8.26548949529284</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G16" t="n">
-        <v>554.46743171663</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1942,26 +1938,26 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>40626</v>
+        <v>39735</v>
       </c>
       <c r="E17" t="n">
-        <v>446</v>
+        <v>1381</v>
       </c>
       <c r="F17" t="n">
-        <v>8.152824574119061</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G17" t="n">
-        <v>623.1157872657654</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1969,26 +1965,26 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>40991</v>
+        <v>40100</v>
       </c>
       <c r="E18" t="n">
-        <v>811</v>
+        <v>1746</v>
       </c>
       <c r="F18" t="n">
-        <v>8.22490587834845</v>
+        <v>8.217862822058901</v>
       </c>
       <c r="G18" t="n">
-        <v>559.2473247716565</v>
+        <v>177.1996638272461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1996,26 +1992,26 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>41357</v>
+        <v>40465</v>
       </c>
       <c r="E19" t="n">
-        <v>1177</v>
+        <v>2111</v>
       </c>
       <c r="F19" t="n">
-        <v>8.26548949529284</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G19" t="n">
-        <v>554.46743171663</v>
+        <v>176.2086264501363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2023,26 +2019,26 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>40626</v>
+        <v>40830</v>
       </c>
       <c r="E20" t="n">
-        <v>446</v>
+        <v>2476</v>
       </c>
       <c r="F20" t="n">
-        <v>8.152824574119061</v>
+        <v>8.287772583088799</v>
       </c>
       <c r="G20" t="n">
-        <v>623.1157872657654</v>
+        <v>262.1459577302136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2050,26 +2046,26 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>40991</v>
+        <v>41196</v>
       </c>
       <c r="E21" t="n">
-        <v>811</v>
+        <v>2842</v>
       </c>
       <c r="F21" t="n">
-        <v>8.22490587834845</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G21" t="n">
-        <v>559.2473247716565</v>
+        <v>107.9602878328427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2077,26 +2073,26 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>41357</v>
+        <v>41561</v>
       </c>
       <c r="E22" t="n">
-        <v>1177</v>
+        <v>3207</v>
       </c>
       <c r="F22" t="n">
-        <v>8.26548949529284</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G22" t="n">
-        <v>554.46743171663</v>
+        <v>219.8741832971606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2104,26 +2100,26 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>40626</v>
+        <v>41926</v>
       </c>
       <c r="E23" t="n">
-        <v>446</v>
+        <v>3572</v>
       </c>
       <c r="F23" t="n">
-        <v>8.152824574119061</v>
+        <v>8.409033413511539</v>
       </c>
       <c r="G23" t="n">
-        <v>623.1157872657654</v>
+        <v>224.4131439034493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2131,26 +2127,26 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>40991</v>
+        <v>42291</v>
       </c>
       <c r="E24" t="n">
-        <v>811</v>
+        <v>3937</v>
       </c>
       <c r="F24" t="n">
-        <v>8.22490587834845</v>
+        <v>8.447192061372981</v>
       </c>
       <c r="G24" t="n">
-        <v>559.2473247716565</v>
+        <v>186.4632035999842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Gazipur) (SD2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2158,22 +2154,22 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>41357</v>
+        <v>42657</v>
       </c>
       <c r="E25" t="n">
-        <v>1177</v>
+        <v>4303</v>
       </c>
       <c r="F25" t="n">
-        <v>8.26548949529284</v>
+        <v>8.502671275200031</v>
       </c>
       <c r="G25" t="n">
-        <v>554.46743171663</v>
+        <v>110.196206471653</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2185,22 +2181,22 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>40596</v>
+        <v>38639</v>
       </c>
       <c r="E26" t="n">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="F26" t="n">
-        <v>8.116140477194804</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G26" t="n">
-        <v>493.7507086671172</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2212,22 +2208,22 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>40961</v>
+        <v>39004</v>
       </c>
       <c r="E27" t="n">
-        <v>781</v>
+        <v>650</v>
       </c>
       <c r="F27" t="n">
-        <v>8.151121539390644</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G27" t="n">
-        <v>454.1084447394541</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2239,26 +2235,26 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>41327</v>
+        <v>39369</v>
       </c>
       <c r="E28" t="n">
-        <v>1147</v>
+        <v>1015</v>
       </c>
       <c r="F28" t="n">
-        <v>8.188330610980953</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G28" t="n">
-        <v>440.1297618031599</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2266,26 +2262,26 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>40596</v>
+        <v>39735</v>
       </c>
       <c r="E29" t="n">
-        <v>416</v>
+        <v>1381</v>
       </c>
       <c r="F29" t="n">
-        <v>8.116140477194804</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G29" t="n">
-        <v>493.7507086671172</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2293,26 +2289,26 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>40961</v>
+        <v>40100</v>
       </c>
       <c r="E30" t="n">
-        <v>781</v>
+        <v>1746</v>
       </c>
       <c r="F30" t="n">
-        <v>8.151121539390644</v>
+        <v>8.217862822058901</v>
       </c>
       <c r="G30" t="n">
-        <v>454.1084447394541</v>
+        <v>177.1996638272461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Winter Tomato - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2320,26 +2316,26 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>41327</v>
+        <v>40465</v>
       </c>
       <c r="E31" t="n">
-        <v>1147</v>
+        <v>2111</v>
       </c>
       <c r="F31" t="n">
-        <v>8.188330610980953</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G31" t="n">
-        <v>440.1297618031599</v>
+        <v>176.2086264501363</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2347,26 +2343,26 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>40609</v>
+        <v>40830</v>
       </c>
       <c r="E32" t="n">
-        <v>429</v>
+        <v>2476</v>
       </c>
       <c r="F32" t="n">
-        <v>8.149854613466564</v>
+        <v>8.287772583088799</v>
       </c>
       <c r="G32" t="n">
-        <v>521.722267415854</v>
+        <v>262.1459577302136</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2374,26 +2370,26 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>40974</v>
+        <v>41196</v>
       </c>
       <c r="E33" t="n">
-        <v>794</v>
+        <v>2842</v>
       </c>
       <c r="F33" t="n">
-        <v>8.18529050471156</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G33" t="n">
-        <v>489.5130707729779</v>
+        <v>107.9602878328427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2401,26 +2397,26 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>41340</v>
+        <v>41561</v>
       </c>
       <c r="E34" t="n">
-        <v>1160</v>
+        <v>3207</v>
       </c>
       <c r="F34" t="n">
-        <v>8.234694634428431</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G34" t="n">
-        <v>475.1946539421569</v>
+        <v>219.8741832971606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2428,26 +2424,26 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>40609</v>
+        <v>41926</v>
       </c>
       <c r="E35" t="n">
-        <v>429</v>
+        <v>3572</v>
       </c>
       <c r="F35" t="n">
-        <v>8.149854613466564</v>
+        <v>8.409033413511539</v>
       </c>
       <c r="G35" t="n">
-        <v>521.722267415854</v>
+        <v>224.4131439034493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2455,26 +2451,26 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>40974</v>
+        <v>42291</v>
       </c>
       <c r="E36" t="n">
-        <v>794</v>
+        <v>3937</v>
       </c>
       <c r="F36" t="n">
-        <v>8.18529050471156</v>
+        <v>8.447192061372981</v>
       </c>
       <c r="G36" t="n">
-        <v>489.5130707729779</v>
+        <v>186.4632035999842</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2482,22 +2478,22 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>41340</v>
+        <v>42657</v>
       </c>
       <c r="E37" t="n">
-        <v>1160</v>
+        <v>4303</v>
       </c>
       <c r="F37" t="n">
-        <v>8.234694634428431</v>
+        <v>8.502671275200031</v>
       </c>
       <c r="G37" t="n">
-        <v>475.1946539421569</v>
+        <v>110.196206471653</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2509,22 +2505,22 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>40572</v>
+        <v>38639</v>
       </c>
       <c r="E38" t="n">
-        <v>392</v>
+        <v>285</v>
       </c>
       <c r="F38" t="n">
-        <v>8.160466078310424</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G38" t="n">
-        <v>396.6686663362698</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2536,22 +2532,22 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>40937</v>
+        <v>39004</v>
       </c>
       <c r="E39" t="n">
-        <v>757</v>
+        <v>650</v>
       </c>
       <c r="F39" t="n">
-        <v>8.145782130926303</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G39" t="n">
-        <v>420.0252606894488</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2563,26 +2559,26 @@
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>41303</v>
+        <v>39369</v>
       </c>
       <c r="E40" t="n">
-        <v>1123</v>
+        <v>1015</v>
       </c>
       <c r="F40" t="n">
-        <v>8.159362150667588</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G40" t="n">
-        <v>439.1301208475674</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2590,26 +2586,26 @@
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>40572</v>
+        <v>39735</v>
       </c>
       <c r="E41" t="n">
-        <v>392</v>
+        <v>1381</v>
       </c>
       <c r="F41" t="n">
-        <v>8.160466078310424</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G41" t="n">
-        <v>396.6686663362698</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2617,26 +2613,26 @@
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>40937</v>
+        <v>40100</v>
       </c>
       <c r="E42" t="n">
-        <v>757</v>
+        <v>1746</v>
       </c>
       <c r="F42" t="n">
-        <v>8.145782130926303</v>
+        <v>8.217862822058901</v>
       </c>
       <c r="G42" t="n">
-        <v>420.0252606894488</v>
+        <v>177.1996638272461</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brinjal - Furrow (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2644,313 +2640,4066 @@
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>41303</v>
+        <v>40465</v>
       </c>
       <c r="E43" t="n">
-        <v>1123</v>
+        <v>2111</v>
       </c>
       <c r="F43" t="n">
-        <v>8.159362150667588</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G43" t="n">
-        <v>439.1301208475674</v>
+        <v>176.2086264501363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Wheat (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>40702</v>
+        <v>40830</v>
       </c>
       <c r="E44" t="n">
-        <v>522</v>
+        <v>2476</v>
       </c>
       <c r="F44" t="n">
-        <v>10.36888728709724</v>
+        <v>8.287772583088799</v>
       </c>
       <c r="G44" t="n">
-        <v>781.2895420347404</v>
+        <v>262.1459577302136</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Wheat (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>41067</v>
+        <v>41196</v>
       </c>
       <c r="E45" t="n">
-        <v>887</v>
+        <v>2842</v>
       </c>
       <c r="F45" t="n">
-        <v>10.41000634184312</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G45" t="n">
-        <v>753.3783713455551</v>
+        <v>107.9602878328427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wheat (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>41433</v>
+        <v>41561</v>
       </c>
       <c r="E46" t="n">
-        <v>1253</v>
+        <v>3207</v>
       </c>
       <c r="F46" t="n">
-        <v>10.45509200651106</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G46" t="n">
-        <v>764.9391393697578</v>
+        <v>219.8741832971606</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rice (Magura)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>40311</v>
+        <v>41926</v>
       </c>
       <c r="E47" t="n">
-        <v>131</v>
+        <v>3572</v>
       </c>
       <c r="F47" t="n">
-        <v>6.685001310430317</v>
+        <v>8.409033413511539</v>
       </c>
       <c r="G47" t="n">
-        <v>635.4148958486646</v>
+        <v>224.4131439034493</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rice (Magura)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>40676</v>
+        <v>42291</v>
       </c>
       <c r="E48" t="n">
-        <v>496</v>
+        <v>3937</v>
       </c>
       <c r="F48" t="n">
-        <v>6.663760289770972</v>
+        <v>8.447192061372981</v>
       </c>
       <c r="G48" t="n">
-        <v>576.7753762708826</v>
+        <v>186.4632035999842</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rice (Magura)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>41041</v>
+        <v>42657</v>
       </c>
       <c r="E49" t="n">
-        <v>861</v>
+        <v>4303</v>
       </c>
       <c r="F49" t="n">
-        <v>6.665636245753939</v>
+        <v>8.502671275200031</v>
       </c>
       <c r="G49" t="n">
-        <v>569.842385873952</v>
+        <v>110.196206471653</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rice (Magura)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>41407</v>
+        <v>38639</v>
       </c>
       <c r="E50" t="n">
-        <v>1227</v>
+        <v>285</v>
       </c>
       <c r="F50" t="n">
-        <v>6.818304607624293</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G50" t="n">
-        <v>586.3869258097915</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rice (Barisal)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>40317</v>
+        <v>39004</v>
       </c>
       <c r="E51" t="n">
-        <v>137</v>
+        <v>650</v>
       </c>
       <c r="F51" t="n">
-        <v>6.691117006220352</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G51" t="n">
-        <v>566.12726644269</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rice (Barisal)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>40682</v>
+        <v>39369</v>
       </c>
       <c r="E52" t="n">
-        <v>502</v>
+        <v>1015</v>
       </c>
       <c r="F52" t="n">
-        <v>6.643738165280067</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G52" t="n">
-        <v>525.945710868946</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rice (Barisal)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PaddyRice</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>41047</v>
+        <v>39735</v>
       </c>
       <c r="E53" t="n">
-        <v>867</v>
+        <v>1381</v>
       </c>
       <c r="F53" t="n">
-        <v>6.671830562414732</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G53" t="n">
-        <v>506.6232797723603</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rice (Barisal)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G54" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G55" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G56" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G57" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G58" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G59" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G60" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G61" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E62" t="n">
+        <v>285</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G62" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E63" t="n">
+        <v>650</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G63" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G64" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>3</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PaddyRice</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>41413</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1233</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6.743602641799592</v>
-      </c>
-      <c r="G54" t="n">
-        <v>527.0375239137037</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G65" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G66" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G67" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G68" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G69" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G70" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G71" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G72" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>11</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G73" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E74" t="n">
+        <v>285</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G74" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E75" t="n">
+        <v>650</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G75" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G76" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G77" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G78" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G79" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G80" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G81" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G82" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G83" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G84" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>11</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G85" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E86" t="n">
+        <v>285</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G86" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E87" t="n">
+        <v>650</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G87" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G88" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G89" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G90" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G91" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G92" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G93" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G94" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G95" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>10</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G96" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G97" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E98" t="n">
+        <v>285</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G98" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E99" t="n">
+        <v>650</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G99" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G100" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G101" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G102" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G103" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G104" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G105" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G106" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G107" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>10</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G108" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>11</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G109" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E110" t="n">
+        <v>285</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G110" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E111" t="n">
+        <v>650</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G111" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G112" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G113" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G114" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G115" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G116" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G117" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>8</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G118" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>9</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G119" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>10</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G120" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>11</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G121" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E122" t="n">
+        <v>285</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G122" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E123" t="n">
+        <v>650</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G123" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G124" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G125" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G126" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G127" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G128" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>7</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G129" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G130" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>9</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G131" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>10</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G132" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>11</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G133" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E134" t="n">
+        <v>285</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G134" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E135" t="n">
+        <v>650</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G135" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G136" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G137" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F138" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G138" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G139" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G140" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>7</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G141" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>8</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G142" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>9</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G143" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G144" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>11</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G145" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E146" t="n">
+        <v>285</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G146" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E147" t="n">
+        <v>650</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G147" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G148" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G149" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G150" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G151" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G152" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>7</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G153" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>8</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G154" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>9</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G155" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>10</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G156" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>11</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G157" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E158" t="n">
+        <v>285</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G158" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E159" t="n">
+        <v>650</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G159" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G160" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G161" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G162" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G163" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G164" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G165" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>8</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G166" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>9</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G167" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>10</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G168" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>11</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G169" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E170" t="n">
+        <v>285</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G170" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E171" t="n">
+        <v>650</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G171" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G172" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G173" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G174" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>5</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G175" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>6</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G176" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>7</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G177" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>8</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G178" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>9</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G179" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>10</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G180" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>11</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G181" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E182" t="n">
+        <v>285</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G182" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E183" t="n">
+        <v>650</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G183" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G184" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G185" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G186" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G187" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>6</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G188" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>7</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G189" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>8</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G190" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G191" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F192" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G192" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>11</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F193" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G193" t="n">
+        <v>110.196206471653</v>
       </c>
     </row>
   </sheetData>

--- a/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
+++ b/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -531,10 +531,10 @@
         <v>90.41</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>38353</v>
+        <v>40179</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>42735</v>
+        <v>41639</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -572,6 +572,362 @@
         <v>225</v>
       </c>
       <c r="O2" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="N3" t="n">
+        <v>212</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12/04</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>62.95</v>
+      </c>
+      <c r="N4" t="n">
+        <v>254</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12/04</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="N5" t="n">
+        <v>335</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="C6" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SandyLoam</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11/04</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="N6" t="n">
+        <v>249</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SandyLoam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11/17</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="N7" t="n">
+        <v>228</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SandyLoam</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10/11</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>54-238</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>['FC']</t>
         </is>
@@ -588,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +992,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -648,22 +1004,22 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>38639</v>
+        <v>40465</v>
       </c>
       <c r="E2" t="n">
         <v>285</v>
       </c>
       <c r="F2" t="n">
-        <v>8.093118990094576</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G2" t="n">
-        <v>166.1704794770949</v>
+        <v>175.934415955321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -675,22 +1031,22 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>39004</v>
+        <v>40830</v>
       </c>
       <c r="E3" t="n">
         <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>8.129332647566805</v>
+        <v>8.287643963594832</v>
       </c>
       <c r="G3" t="n">
-        <v>186.407839063688</v>
+        <v>261.8770496751929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -702,22 +1058,22 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>39369</v>
+        <v>41196</v>
       </c>
       <c r="E4" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F4" t="n">
-        <v>8.16077555163163</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8729840806344</v>
+        <v>107.6078349705688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -729,26 +1085,26 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>39735</v>
+        <v>41561</v>
       </c>
       <c r="E5" t="n">
         <v>1381</v>
       </c>
       <c r="F5" t="n">
-        <v>8.190761125191992</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G5" t="n">
-        <v>125.1617741039283</v>
+        <v>219.548417558573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -756,26 +1112,26 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>40100</v>
+        <v>40465</v>
       </c>
       <c r="E6" t="n">
-        <v>1746</v>
+        <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>8.217862822058901</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G6" t="n">
-        <v>177.1996638272461</v>
+        <v>175.934415955321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -783,26 +1139,26 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>40465</v>
+        <v>40830</v>
       </c>
       <c r="E7" t="n">
-        <v>2111</v>
+        <v>650</v>
       </c>
       <c r="F7" t="n">
-        <v>8.264360674226749</v>
+        <v>8.287643963594832</v>
       </c>
       <c r="G7" t="n">
-        <v>176.2086264501363</v>
+        <v>261.8770496751929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -810,26 +1166,26 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>40830</v>
+        <v>41196</v>
       </c>
       <c r="E8" t="n">
-        <v>2476</v>
+        <v>1016</v>
       </c>
       <c r="F8" t="n">
-        <v>8.287772583088799</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G8" t="n">
-        <v>262.1459577302136</v>
+        <v>107.6078349705688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -837,26 +1193,26 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>41196</v>
+        <v>41561</v>
       </c>
       <c r="E9" t="n">
-        <v>2842</v>
+        <v>1381</v>
       </c>
       <c r="F9" t="n">
-        <v>8.331570870514815</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G9" t="n">
-        <v>107.9602878328427</v>
+        <v>219.548417558573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -864,26 +1220,26 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>41561</v>
+        <v>40626</v>
       </c>
       <c r="E10" t="n">
-        <v>3207</v>
+        <v>446</v>
       </c>
       <c r="F10" t="n">
-        <v>8.375322153541294</v>
+        <v>8.265378691317721</v>
       </c>
       <c r="G10" t="n">
-        <v>219.8741832971606</v>
+        <v>702.4314281664747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -891,26 +1247,26 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>41926</v>
+        <v>40991</v>
       </c>
       <c r="E11" t="n">
-        <v>3572</v>
+        <v>811</v>
       </c>
       <c r="F11" t="n">
-        <v>8.409033413511539</v>
+        <v>8.295188516654727</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4131439034493</v>
+        <v>681.9764828224282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -918,26 +1274,26 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>42291</v>
+        <v>41357</v>
       </c>
       <c r="E12" t="n">
-        <v>3937</v>
+        <v>1177</v>
       </c>
       <c r="F12" t="n">
-        <v>8.447192061372981</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G12" t="n">
-        <v>186.4632035999842</v>
+        <v>669.6979090812921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur)</t>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -945,16 +1301,313 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>42657</v>
+        <v>40626</v>
       </c>
       <c r="E13" t="n">
-        <v>4303</v>
+        <v>446</v>
       </c>
       <c r="F13" t="n">
-        <v>8.502671275200031</v>
+        <v>8.265378691317721</v>
       </c>
       <c r="G13" t="n">
-        <v>110.196206471653</v>
+        <v>702.4314281664747</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>40991</v>
+      </c>
+      <c r="E14" t="n">
+        <v>811</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.295188516654727</v>
+      </c>
+      <c r="G14" t="n">
+        <v>681.9764828224282</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>41357</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G15" t="n">
+        <v>669.6979090812921</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>40596</v>
+      </c>
+      <c r="E16" t="n">
+        <v>416</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.26537869131772</v>
+      </c>
+      <c r="G16" t="n">
+        <v>688.8652299330213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>40961</v>
+      </c>
+      <c r="E17" t="n">
+        <v>781</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.295188516654727</v>
+      </c>
+      <c r="G17" t="n">
+        <v>657.1630454514807</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Winter Tomato - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>41327</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1147</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G18" t="n">
+        <v>629.2561474090604</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>40609</v>
+      </c>
+      <c r="E19" t="n">
+        <v>429</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.26537869131772</v>
+      </c>
+      <c r="G19" t="n">
+        <v>691.7132106731557</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>40974</v>
+      </c>
+      <c r="E20" t="n">
+        <v>794</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.295188516654727</v>
+      </c>
+      <c r="G20" t="n">
+        <v>673.53069884257</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Jamalpur)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>41340</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G21" t="n">
+        <v>650.1102668679724</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>40572</v>
+      </c>
+      <c r="E22" t="n">
+        <v>392</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.26537869131772</v>
+      </c>
+      <c r="G22" t="n">
+        <v>682.4463427549599</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>40937</v>
+      </c>
+      <c r="E23" t="n">
+        <v>757</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.295188516654724</v>
+      </c>
+      <c r="G23" t="n">
+        <v>657.2281153600127</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brinjal - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>41303</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G24" t="n">
+        <v>651.3358453519608</v>
       </c>
     </row>
   </sheetData>

--- a/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
+++ b/heliostrome/jip_project/results/test_results_Bangladesh.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -531,10 +531,10 @@
         <v>90.41</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -590,10 +590,10 @@
         <v>90.41</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -625,10 +625,10 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>35.28</v>
+        <v>33.73</v>
       </c>
       <c r="N3" t="n">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -649,10 +649,10 @@
         <v>90.41</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -684,10 +684,10 @@
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>62.95</v>
+        <v>33.73</v>
       </c>
       <c r="N4" t="n">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -708,10 +708,10 @@
         <v>90.41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -743,10 +743,10 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>39.92</v>
+        <v>33.73</v>
       </c>
       <c r="N5" t="n">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -757,24 +757,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C6" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11/04</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -802,10 +802,10 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>35.64</v>
+        <v>33.73</v>
       </c>
       <c r="N6" t="n">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -816,24 +816,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11/17</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -861,10 +861,10 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>27.29</v>
+        <v>33.73</v>
       </c>
       <c r="N7" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -875,24 +875,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.92</v>
+        <v>24.1</v>
       </c>
       <c r="C8" t="n">
-        <v>89.94</v>
+        <v>90.41</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>40179</v>
+        <v>38353</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>41639</v>
+        <v>42735</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SandyLoam</t>
+          <t>ClayLoam</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10/11</t>
+          <t>06/26</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -920,14 +920,661 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>35.18</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+        <v>33.73</v>
+      </c>
+      <c r="N8" t="n">
+        <v>225</v>
       </c>
       <c r="O8" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N9" t="n">
+        <v>225</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N10" t="n">
+        <v>225</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N11" t="n">
+        <v>225</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N12" t="n">
+        <v>225</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N13" t="n">
+        <v>225</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N14" t="n">
+        <v>225</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N15" t="n">
+        <v>225</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N16" t="n">
+        <v>225</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N17" t="n">
+        <v>225</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N18" t="n">
+        <v>225</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['FC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ClayLoam</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>06/26</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[100, 100, 100, 100]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Prop</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="N19" t="n">
+        <v>225</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>['FC']</t>
         </is>
@@ -944,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,7 +1639,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1004,22 +1651,22 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>40465</v>
+        <v>38639</v>
       </c>
       <c r="E2" t="n">
         <v>285</v>
       </c>
       <c r="F2" t="n">
-        <v>8.264360674226749</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G2" t="n">
-        <v>175.934415955321</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1031,22 +1678,22 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>40830</v>
+        <v>39004</v>
       </c>
       <c r="E3" t="n">
         <v>650</v>
       </c>
       <c r="F3" t="n">
-        <v>8.287643963594832</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G3" t="n">
-        <v>261.8770496751929</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1058,22 +1705,22 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>41196</v>
+        <v>39369</v>
       </c>
       <c r="E4" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F4" t="n">
-        <v>8.331570870514815</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G4" t="n">
-        <v>107.6078349705688</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1085,26 +1732,26 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>41561</v>
+        <v>39735</v>
       </c>
       <c r="E5" t="n">
         <v>1381</v>
       </c>
       <c r="F5" t="n">
-        <v>8.375322153541294</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G5" t="n">
-        <v>219.548417558573</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1112,26 +1759,26 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>40465</v>
+        <v>40100</v>
       </c>
       <c r="E6" t="n">
-        <v>285</v>
+        <v>1746</v>
       </c>
       <c r="F6" t="n">
-        <v>8.264360674226749</v>
+        <v>8.217862822058901</v>
       </c>
       <c r="G6" t="n">
-        <v>175.934415955321</v>
+        <v>177.1996638272461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1139,26 +1786,26 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>40830</v>
+        <v>40465</v>
       </c>
       <c r="E7" t="n">
-        <v>650</v>
+        <v>2111</v>
       </c>
       <c r="F7" t="n">
-        <v>8.287643963594832</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G7" t="n">
-        <v>261.8770496751929</v>
+        <v>176.2086264501363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1166,26 +1813,26 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>41196</v>
+        <v>40830</v>
       </c>
       <c r="E8" t="n">
-        <v>1016</v>
+        <v>2476</v>
       </c>
       <c r="F8" t="n">
-        <v>8.331570870514815</v>
+        <v>8.287772583088799</v>
       </c>
       <c r="G8" t="n">
-        <v>107.6078349705688</v>
+        <v>262.1459577302136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Summer Tomato - Drip (Gazipur) SD(2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1193,26 +1840,26 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>41561</v>
+        <v>41196</v>
       </c>
       <c r="E9" t="n">
-        <v>1381</v>
+        <v>2842</v>
       </c>
       <c r="F9" t="n">
-        <v>8.375322153541294</v>
+        <v>8.331570870514815</v>
       </c>
       <c r="G9" t="n">
-        <v>219.548417558573</v>
+        <v>107.9602878328427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1220,26 +1867,26 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>40626</v>
+        <v>41561</v>
       </c>
       <c r="E10" t="n">
-        <v>446</v>
+        <v>3207</v>
       </c>
       <c r="F10" t="n">
-        <v>8.265378691317721</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G10" t="n">
-        <v>702.4314281664747</v>
+        <v>219.8741832971606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1247,26 +1894,26 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>40991</v>
+        <v>41926</v>
       </c>
       <c r="E11" t="n">
-        <v>811</v>
+        <v>3572</v>
       </c>
       <c r="F11" t="n">
-        <v>8.295188516654727</v>
+        <v>8.409033413511539</v>
       </c>
       <c r="G11" t="n">
-        <v>681.9764828224282</v>
+        <v>224.4131439034493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y1)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1274,26 +1921,26 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>41357</v>
+        <v>42291</v>
       </c>
       <c r="E12" t="n">
-        <v>1177</v>
+        <v>3937</v>
       </c>
       <c r="F12" t="n">
-        <v>8.331570870514815</v>
+        <v>8.447192061372981</v>
       </c>
       <c r="G12" t="n">
-        <v>669.6979090812921</v>
+        <v>186.4632035999842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1301,26 +1948,26 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>40626</v>
+        <v>42657</v>
       </c>
       <c r="E13" t="n">
-        <v>446</v>
+        <v>4303</v>
       </c>
       <c r="F13" t="n">
-        <v>8.265378691317721</v>
+        <v>8.502671275200031</v>
       </c>
       <c r="G13" t="n">
-        <v>702.4314281664747</v>
+        <v>110.196206471653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1328,26 +1975,26 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>40991</v>
+        <v>38639</v>
       </c>
       <c r="E14" t="n">
-        <v>811</v>
+        <v>285</v>
       </c>
       <c r="F14" t="n">
-        <v>8.295188516654727</v>
+        <v>8.093118990094576</v>
       </c>
       <c r="G14" t="n">
-        <v>681.9764828224282</v>
+        <v>166.1704794770949</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Gazipur) (Y2)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1355,26 +2002,26 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>41357</v>
+        <v>39004</v>
       </c>
       <c r="E15" t="n">
-        <v>1177</v>
+        <v>650</v>
       </c>
       <c r="F15" t="n">
-        <v>8.331570870514815</v>
+        <v>8.129332647566805</v>
       </c>
       <c r="G15" t="n">
-        <v>669.6979090812921</v>
+        <v>186.407839063688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1382,26 +2029,26 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>40596</v>
+        <v>39369</v>
       </c>
       <c r="E16" t="n">
-        <v>416</v>
+        <v>1015</v>
       </c>
       <c r="F16" t="n">
-        <v>8.26537869131772</v>
+        <v>8.16077555163163</v>
       </c>
       <c r="G16" t="n">
-        <v>688.8652299330213</v>
+        <v>163.8729840806344</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1409,26 +2056,26 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>40961</v>
+        <v>39735</v>
       </c>
       <c r="E17" t="n">
-        <v>781</v>
+        <v>1381</v>
       </c>
       <c r="F17" t="n">
-        <v>8.295188516654727</v>
+        <v>8.190761125191992</v>
       </c>
       <c r="G17" t="n">
-        <v>657.1630454514807</v>
+        <v>125.1617741039283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Winter Tomato - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1436,26 +2083,26 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>41327</v>
+        <v>40100</v>
       </c>
       <c r="E18" t="n">
-        <v>1147</v>
+        <v>1746</v>
       </c>
       <c r="F18" t="n">
-        <v>8.331570870514815</v>
+        <v>8.217862822058901</v>
       </c>
       <c r="G18" t="n">
-        <v>629.2561474090604</v>
+        <v>177.1996638272461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1463,26 +2110,26 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>40609</v>
+        <v>40465</v>
       </c>
       <c r="E19" t="n">
-        <v>429</v>
+        <v>2111</v>
       </c>
       <c r="F19" t="n">
-        <v>8.26537869131772</v>
+        <v>8.264360674226749</v>
       </c>
       <c r="G19" t="n">
-        <v>691.7132106731557</v>
+        <v>176.2086264501363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1490,26 +2137,26 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>40974</v>
+        <v>40830</v>
       </c>
       <c r="E20" t="n">
-        <v>794</v>
+        <v>2476</v>
       </c>
       <c r="F20" t="n">
-        <v>8.295188516654727</v>
+        <v>8.287772583088799</v>
       </c>
       <c r="G20" t="n">
-        <v>673.53069884257</v>
+        <v>262.1459577302136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Jamalpur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1517,26 +2164,26 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>41340</v>
+        <v>41196</v>
       </c>
       <c r="E21" t="n">
-        <v>1160</v>
+        <v>2842</v>
       </c>
       <c r="F21" t="n">
         <v>8.331570870514815</v>
       </c>
       <c r="G21" t="n">
-        <v>650.1102668679724</v>
+        <v>107.9602878328427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1544,26 +2191,26 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>40572</v>
+        <v>41561</v>
       </c>
       <c r="E22" t="n">
-        <v>392</v>
+        <v>3207</v>
       </c>
       <c r="F22" t="n">
-        <v>8.26537869131772</v>
+        <v>8.375322153541294</v>
       </c>
       <c r="G22" t="n">
-        <v>682.4463427549599</v>
+        <v>219.8741832971606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1571,43 +2218,5254 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>40937</v>
+        <v>41926</v>
       </c>
       <c r="E23" t="n">
-        <v>757</v>
+        <v>3572</v>
       </c>
       <c r="F23" t="n">
-        <v>8.295188516654724</v>
+        <v>8.409033413511539</v>
       </c>
       <c r="G23" t="n">
-        <v>657.2281153600127</v>
+        <v>224.4131439034493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brinjal - Drip (Gazipur)</t>
+          <t>Summer Tomato - Drip (Gazipur)</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G24" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G25" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E26" t="n">
+        <v>285</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G26" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E27" t="n">
+        <v>650</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G27" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>2</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Tomato</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>41303</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1123</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G28" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G29" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G30" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G31" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G32" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F33" t="n">
         <v>8.331570870514815</v>
       </c>
-      <c r="G24" t="n">
-        <v>651.3358453519608</v>
+      <c r="G33" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G34" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G35" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G36" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G37" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E38" t="n">
+        <v>285</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G38" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E39" t="n">
+        <v>650</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G39" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G40" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G41" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G42" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G43" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G44" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G45" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G46" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G47" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G48" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G49" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E50" t="n">
+        <v>285</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G50" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E51" t="n">
+        <v>650</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G51" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G52" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G53" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G54" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G55" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G56" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G57" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G58" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G59" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G60" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G61" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E62" t="n">
+        <v>285</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G62" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E63" t="n">
+        <v>650</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G63" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G64" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G65" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G66" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G67" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G68" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G69" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G70" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G71" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G72" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>11</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G73" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E74" t="n">
+        <v>285</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G74" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E75" t="n">
+        <v>650</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G75" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G76" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G77" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G78" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G79" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F80" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G80" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G81" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G82" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G83" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G84" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>11</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G85" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E86" t="n">
+        <v>285</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G86" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E87" t="n">
+        <v>650</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G87" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G88" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G89" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G90" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G91" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G92" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G93" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G94" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G95" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>10</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G96" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G97" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E98" t="n">
+        <v>285</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G98" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E99" t="n">
+        <v>650</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G99" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G100" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G101" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G102" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G103" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G104" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G105" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G106" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>9</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G107" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>10</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G108" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>11</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G109" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E110" t="n">
+        <v>285</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G110" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E111" t="n">
+        <v>650</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G111" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G112" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G113" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G114" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G115" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G116" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G117" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>8</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G118" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>9</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G119" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>10</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G120" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>11</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G121" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E122" t="n">
+        <v>285</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G122" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E123" t="n">
+        <v>650</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G123" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G124" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G125" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G126" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G127" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G128" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>7</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G129" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G130" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>9</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G131" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>10</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G132" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>11</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G133" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E134" t="n">
+        <v>285</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G134" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E135" t="n">
+        <v>650</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G135" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G136" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G137" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F138" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G138" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G139" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G140" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>7</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G141" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>8</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G142" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>9</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G143" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G144" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>11</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G145" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E146" t="n">
+        <v>285</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G146" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E147" t="n">
+        <v>650</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G147" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G148" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G149" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G150" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G151" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G152" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>7</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G153" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>8</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G154" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>9</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G155" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>10</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G156" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>11</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G157" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E158" t="n">
+        <v>285</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G158" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E159" t="n">
+        <v>650</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G159" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G160" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G161" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F162" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G162" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G163" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G164" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G165" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>8</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G166" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>9</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G167" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>10</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G168" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>11</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G169" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E170" t="n">
+        <v>285</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G170" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E171" t="n">
+        <v>650</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G171" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G172" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G173" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G174" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>5</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G175" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>6</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G176" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>7</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G177" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>8</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G178" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>9</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G179" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>10</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G180" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>11</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G181" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E182" t="n">
+        <v>285</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G182" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E183" t="n">
+        <v>650</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G183" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G184" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G185" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G186" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G187" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>6</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G188" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>7</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G189" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>8</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G190" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>9</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F191" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G191" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F192" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G192" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>11</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F193" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G193" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E194" t="n">
+        <v>285</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G194" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E195" t="n">
+        <v>650</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G195" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F196" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G196" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F197" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G197" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>4</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F198" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G198" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>5</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G199" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>6</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G200" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>7</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G201" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>8</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G202" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>9</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F203" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G203" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>10</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F204" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G204" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>11</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G205" t="n">
+        <v>110.196206471653</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>38639</v>
+      </c>
+      <c r="E206" t="n">
+        <v>285</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8.093118990094576</v>
+      </c>
+      <c r="G206" t="n">
+        <v>166.1704794770949</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>39004</v>
+      </c>
+      <c r="E207" t="n">
+        <v>650</v>
+      </c>
+      <c r="F207" t="n">
+        <v>8.129332647566805</v>
+      </c>
+      <c r="G207" t="n">
+        <v>186.407839063688</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>39369</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8.16077555163163</v>
+      </c>
+      <c r="G208" t="n">
+        <v>163.8729840806344</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>39735</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F209" t="n">
+        <v>8.190761125191992</v>
+      </c>
+      <c r="G209" t="n">
+        <v>125.1617741039283</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>4</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F210" t="n">
+        <v>8.217862822058901</v>
+      </c>
+      <c r="G210" t="n">
+        <v>177.1996638272461</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>5</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>40465</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F211" t="n">
+        <v>8.264360674226749</v>
+      </c>
+      <c r="G211" t="n">
+        <v>176.2086264501363</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>6</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>40830</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2476</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8.287772583088799</v>
+      </c>
+      <c r="G212" t="n">
+        <v>262.1459577302136</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>7</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>41196</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F213" t="n">
+        <v>8.331570870514815</v>
+      </c>
+      <c r="G213" t="n">
+        <v>107.9602878328427</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>8</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>41561</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3207</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8.375322153541294</v>
+      </c>
+      <c r="G214" t="n">
+        <v>219.8741832971606</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>9</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>41926</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3572</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8.409033413511539</v>
+      </c>
+      <c r="G215" t="n">
+        <v>224.4131439034493</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>10</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>42291</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3937</v>
+      </c>
+      <c r="F216" t="n">
+        <v>8.447192061372981</v>
+      </c>
+      <c r="G216" t="n">
+        <v>186.4632035999842</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Summer Tomato - Drip (Gazipur)</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>11</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>42657</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4303</v>
+      </c>
+      <c r="F217" t="n">
+        <v>8.502671275200031</v>
+      </c>
+      <c r="G217" t="n">
+        <v>110.196206471653</v>
       </c>
     </row>
   </sheetData>
